--- a/ConsolidationOutputFolder/Consolidated_overall_performance_heatmap.xlsx
+++ b/ConsolidationOutputFolder/Consolidated_overall_performance_heatmap.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Do not edit</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1614,43 +1614,43 @@
         <v>365</v>
       </c>
       <c r="F21" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G21" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H21" t="n">
         <v>65</v>
       </c>
       <c r="I21" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J21" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K21" t="n">
         <v>73</v>
       </c>
       <c r="L21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O21" t="n">
         <v>20</v>
       </c>
       <c r="P21" t="n">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="Q21" t="n">
         <v>2067</v>
       </c>
       <c r="R21" t="n">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1686,43 +1686,43 @@
         <v>360</v>
       </c>
       <c r="F22" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G22" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H22" t="n">
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J22" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
         <v>51</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
         <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="Q22" t="n">
         <v>1682</v>
       </c>
       <c r="R22" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" t="n">
         <v>16</v>
@@ -1770,7 +1770,7 @@
         <v>126</v>
       </c>
       <c r="J23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
         <v>22</v>
@@ -1782,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q23" t="n">
         <v>385</v>
       </c>
       <c r="R23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q28" t="n">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
         <v>113</v>
       </c>
       <c r="J33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
         <v>7</v>
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q33" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2606,19 +2606,19 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G36" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H36" t="n">
         <v>42</v>
       </c>
       <c r="I36" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J36" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K36" t="n">
         <v>40</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q36" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
         <v>77</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q37" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q38" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q43" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3306,40 +3306,40 @@
         <v>365</v>
       </c>
       <c r="F46" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H46" t="n">
         <v>65</v>
       </c>
       <c r="I46" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J46" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K46" t="n">
         <v>73</v>
       </c>
       <c r="L46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O46" t="n">
         <v>20</v>
       </c>
       <c r="P46" t="n">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="Q46" t="n">
-        <v>1918</v>
+        <v>1931</v>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -3670,43 +3670,43 @@
         <v>343939.54</v>
       </c>
       <c r="F51" t="n">
-        <v>462751.15</v>
+        <v>464231.15</v>
       </c>
       <c r="G51" t="n">
-        <v>269674.01</v>
+        <v>273499.01</v>
       </c>
       <c r="H51" t="n">
         <v>65827.06</v>
       </c>
       <c r="I51" t="n">
-        <v>267212.0866666667</v>
+        <v>264426.0866666667</v>
       </c>
       <c r="J51" t="n">
-        <v>391397.3366666667</v>
+        <v>389731.9266666667</v>
       </c>
       <c r="K51" t="n">
         <v>67902.47</v>
       </c>
       <c r="L51" t="n">
-        <v>52362.5</v>
+        <v>49082.5</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>30934.38</v>
+        <v>39760.79</v>
       </c>
       <c r="O51" t="n">
         <v>32776</v>
       </c>
       <c r="P51" t="n">
-        <v>1997198.643333333</v>
+        <v>2003598.643333334</v>
       </c>
       <c r="Q51" t="n">
         <v>2188509.983333332</v>
       </c>
       <c r="R51" t="n">
-        <v>191311.3399999992</v>
+        <v>184911.3399999989</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
@@ -3722,43 +3722,43 @@
         <v>46115.0047597978</v>
       </c>
       <c r="X51" t="n">
-        <v>62045.12422401887</v>
+        <v>62243.56086507648</v>
       </c>
       <c r="Y51" t="n">
-        <v>36157.57076009278</v>
+        <v>36670.42221417749</v>
       </c>
       <c r="Z51" t="n">
         <v>8826.01397101216</v>
       </c>
       <c r="AA51" t="n">
-        <v>35827.47900549276</v>
+        <v>35453.93543658295</v>
       </c>
       <c r="AB51" t="n">
-        <v>52478.08973447925</v>
+        <v>52254.79354097672</v>
       </c>
       <c r="AC51" t="n">
         <v>9104.28247724012</v>
       </c>
       <c r="AD51" t="n">
-        <v>7020.701768499523</v>
+        <v>6580.923266696163</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>4147.644905675555</v>
+        <v>5331.079468511591</v>
       </c>
       <c r="AG51" t="n">
         <v>4394.56712655699</v>
       </c>
       <c r="AH51" t="n">
-        <v>267782.0204783038</v>
+        <v>268640.1248720665</v>
       </c>
       <c r="AI51" t="n">
         <v>293432.8175768382</v>
       </c>
       <c r="AJ51" t="n">
-        <v>25650.7970985344</v>
+        <v>24792.69270477172</v>
       </c>
     </row>
     <row r="52">
@@ -3776,43 +3776,43 @@
         <v>383974.12</v>
       </c>
       <c r="F52" t="n">
-        <v>418379.31</v>
+        <v>419859.31</v>
       </c>
       <c r="G52" t="n">
-        <v>269259.19</v>
+        <v>273084.19</v>
       </c>
       <c r="H52" t="n">
         <v>64072.06</v>
       </c>
       <c r="I52" t="n">
-        <v>292732.55</v>
+        <v>289946.55</v>
       </c>
       <c r="J52" t="n">
-        <v>396917.14</v>
+        <v>395868.14</v>
       </c>
       <c r="K52" t="n">
         <v>52676.73</v>
       </c>
       <c r="L52" t="n">
-        <v>24522.5</v>
+        <v>21242.5</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>32256</v>
+        <v>40366</v>
       </c>
       <c r="O52" t="n">
         <v>33204</v>
       </c>
       <c r="P52" t="n">
-        <v>1981060.6</v>
+        <v>1987360.6</v>
       </c>
       <c r="Q52" t="n">
         <v>2144318.219999999</v>
       </c>
       <c r="R52" t="n">
-        <v>163257.6199999992</v>
+        <v>156957.6199999992</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
@@ -3828,43 +3828,43 @@
         <v>51482.79366611694</v>
       </c>
       <c r="X52" t="n">
-        <v>56095.80065162302</v>
+        <v>56294.23729268063</v>
       </c>
       <c r="Y52" t="n">
-        <v>36101.95218749581</v>
+        <v>36614.80364158052</v>
       </c>
       <c r="Z52" t="n">
         <v>8590.705656785056</v>
       </c>
       <c r="AA52" t="n">
-        <v>39249.23239880401</v>
+        <v>38875.68882989421</v>
       </c>
       <c r="AB52" t="n">
-        <v>53218.17840526661</v>
+        <v>53077.52973197645</v>
       </c>
       <c r="AC52" t="n">
         <v>7062.833353445154</v>
       </c>
       <c r="AD52" t="n">
-        <v>3287.94765563198</v>
+        <v>2848.16915382862</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>4324.846144563774</v>
+        <v>5412.225306034887</v>
       </c>
       <c r="AG52" t="n">
         <v>4451.952857889867</v>
       </c>
       <c r="AH52" t="n">
-        <v>265618.2508078248</v>
+        <v>266462.9473204349</v>
       </c>
       <c r="AI52" t="n">
         <v>287507.6384698925</v>
       </c>
       <c r="AJ52" t="n">
-        <v>21889.38766206765</v>
+        <v>21044.69114945754</v>
       </c>
     </row>
     <row r="53">
@@ -3894,7 +3894,7 @@
         <v>-25520.46333333333</v>
       </c>
       <c r="J53" t="n">
-        <v>-5519.803333333335</v>
+        <v>-6136.213333333335</v>
       </c>
       <c r="K53" t="n">
         <v>15225.74</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-1321.62</v>
+        <v>-605.2099999999998</v>
       </c>
       <c r="O53" t="n">
         <v>-428</v>
       </c>
       <c r="P53" t="n">
-        <v>16138.04333333333</v>
+        <v>16238.04333333333</v>
       </c>
       <c r="Q53" t="n">
         <v>44191.76333333329</v>
       </c>
       <c r="R53" t="n">
-        <v>28053.71999999996</v>
+        <v>27953.71999999996</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
@@ -3946,7 +3946,7 @@
         <v>-3421.753393311254</v>
       </c>
       <c r="AB53" t="n">
-        <v>-740.0886707873556</v>
+        <v>-822.7361909997364</v>
       </c>
       <c r="AC53" t="n">
         <v>2041.449123794967</v>
@@ -3958,19 +3958,19 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>-177.2012388882185</v>
+        <v>-81.14583752329615</v>
       </c>
       <c r="AG53" t="n">
         <v>-57.38573133287746</v>
       </c>
       <c r="AH53" t="n">
-        <v>2163.769670478974</v>
+        <v>2177.177551631515</v>
       </c>
       <c r="AI53" t="n">
         <v>5925.179106945723</v>
       </c>
       <c r="AJ53" t="n">
-        <v>3761.409436466749</v>
+        <v>3748.001555314208</v>
       </c>
     </row>
     <row r="54">
@@ -4312,7 +4312,7 @@
         <v>54</v>
       </c>
       <c r="J60" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K60" t="n">
         <v>48</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>49</v>
       </c>
       <c r="J61" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K61" t="n">
         <v>43</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O61" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K62" t="n">
         <v>5</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="J72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K72" t="n">
         <v>4</v>
@@ -5126,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K75" t="n">
         <v>28</v>
@@ -5342,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q75" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
         <v>17</v>
@@ -5414,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q76" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5630,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5840,16 +5840,16 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q82" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>54</v>
       </c>
       <c r="J85" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K85" t="n">
         <v>48</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O85" t="n">
         <v>1</v>
@@ -6402,19 +6402,19 @@
         <v>63654.67</v>
       </c>
       <c r="J90" t="n">
-        <v>131140.48</v>
+        <v>125694.07</v>
       </c>
       <c r="K90" t="n">
         <v>44675.21000000001</v>
       </c>
       <c r="L90" t="n">
-        <v>8335</v>
+        <v>8600</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>18248.38</v>
+        <v>23429.79</v>
       </c>
       <c r="O90" t="n">
         <v>1315</v>
@@ -6454,19 +6454,19 @@
         <v>8534.742501642464</v>
       </c>
       <c r="AB90" t="n">
-        <v>17583.15970127241</v>
+        <v>16852.91152139227</v>
       </c>
       <c r="AC90" t="n">
         <v>5989.999061448319</v>
       </c>
       <c r="AD90" t="n">
-        <v>1117.546894064331</v>
+        <v>1153.077779118566</v>
       </c>
       <c r="AE90" t="n">
         <v>0</v>
       </c>
       <c r="AF90" t="n">
-        <v>2446.721102664146</v>
+        <v>3141.438397490044</v>
       </c>
       <c r="AG90" t="n">
         <v>176.3136371559202</v>
@@ -6508,19 +6508,19 @@
         <v>88833.55</v>
       </c>
       <c r="J91" t="n">
-        <v>131533.22</v>
+        <v>126703.22</v>
       </c>
       <c r="K91" t="n">
         <v>45495.73</v>
       </c>
       <c r="L91" t="n">
-        <v>8295</v>
+        <v>8560</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>19570</v>
+        <v>24135</v>
       </c>
       <c r="O91" t="n">
         <v>1315</v>
@@ -6560,19 +6560,19 @@
         <v>11910.6968075835</v>
       </c>
       <c r="AB91" t="n">
-        <v>17635.8178137109</v>
+        <v>16988.21715404314</v>
       </c>
       <c r="AC91" t="n">
         <v>6100.013407881152</v>
       </c>
       <c r="AD91" t="n">
-        <v>1112.183741603314</v>
+        <v>1147.714626657549</v>
       </c>
       <c r="AE91" t="n">
         <v>0</v>
       </c>
       <c r="AF91" t="n">
-        <v>2623.922341552364</v>
+        <v>3235.992116165882</v>
       </c>
       <c r="AG91" t="n">
         <v>176.3136371559202</v>
@@ -6610,7 +6610,7 @@
         <v>-25178.88</v>
       </c>
       <c r="J92" t="n">
-        <v>-392.7399999999998</v>
+        <v>-1009.15</v>
       </c>
       <c r="K92" t="n">
         <v>-820.52</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>-1321.62</v>
+        <v>-705.2099999999998</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>-3375.954305941032</v>
       </c>
       <c r="AB92" t="n">
-        <v>-52.65811243849131</v>
+        <v>-135.3056326508722</v>
       </c>
       <c r="AC92" t="n">
         <v>-110.0143464328332</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>-177.2012388882185</v>
+        <v>-94.55371867583762</v>
       </c>
       <c r="AG92" t="n">
         <v>0</v>
@@ -7059,22 +7059,22 @@
         <v>26</v>
       </c>
       <c r="I100" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J100" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K100" t="n">
         <v>14</v>
       </c>
       <c r="L100" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O100" t="n">
         <v>7</v>
@@ -7131,22 +7131,22 @@
         <v>26</v>
       </c>
       <c r="I101" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J101" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K101" t="n">
         <v>8</v>
       </c>
       <c r="L101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" t="n">
         <v>5</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -7516,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q107" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -8071,10 +8071,10 @@
         <v>19</v>
       </c>
       <c r="I115" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J115" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K115" t="n">
         <v>2</v>
@@ -8590,16 +8590,16 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -8791,22 +8791,22 @@
         <v>26</v>
       </c>
       <c r="I125" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J125" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K125" t="n">
         <v>14</v>
       </c>
       <c r="L125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O125" t="n">
         <v>7</v>
@@ -9149,22 +9149,22 @@
         <v>22246.5</v>
       </c>
       <c r="I130" t="n">
-        <v>50235.16666666666</v>
+        <v>47449.16666666666</v>
       </c>
       <c r="J130" t="n">
-        <v>131218.1033333333</v>
+        <v>134004.1033333333</v>
       </c>
       <c r="K130" t="n">
         <v>23227.26</v>
       </c>
       <c r="L130" t="n">
-        <v>35950</v>
+        <v>32405</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>1495</v>
+        <v>5040</v>
       </c>
       <c r="O130" t="n">
         <v>2048</v>
@@ -9201,22 +9201,22 @@
         <v>2982.784280600136</v>
       </c>
       <c r="AA130" t="n">
-        <v>6735.471443447791</v>
+        <v>6361.927874537985</v>
       </c>
       <c r="AB130" t="n">
-        <v>17593.56734555238</v>
+        <v>17967.11091446218</v>
       </c>
       <c r="AC130" t="n">
         <v>3114.283415791802</v>
       </c>
       <c r="AD130" t="n">
-        <v>4820.133274338656</v>
+        <v>4344.82388748106</v>
       </c>
       <c r="AE130" t="n">
         <v>0</v>
       </c>
       <c r="AF130" t="n">
-        <v>200.4478232304949</v>
+        <v>675.7572100880897</v>
       </c>
       <c r="AG130" t="n">
         <v>274.5934060040491</v>
@@ -9251,22 +9251,22 @@
         <v>22246.5</v>
       </c>
       <c r="I131" t="n">
-        <v>50554</v>
+        <v>47768</v>
       </c>
       <c r="J131" t="n">
-        <v>134610.17</v>
+        <v>137396.17</v>
       </c>
       <c r="K131" t="n">
         <v>7181</v>
       </c>
       <c r="L131" t="n">
-        <v>8950</v>
+        <v>5405</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>1495</v>
+        <v>5040</v>
       </c>
       <c r="O131" t="n">
         <v>2476</v>
@@ -9303,22 +9303,22 @@
         <v>2982.784280600136</v>
       </c>
       <c r="AA131" t="n">
-        <v>6778.22023785581</v>
+        <v>6404.676668946006</v>
       </c>
       <c r="AB131" t="n">
-        <v>18048.37161283402</v>
+        <v>18421.91518174383</v>
       </c>
       <c r="AC131" t="n">
         <v>962.8199455640024</v>
       </c>
       <c r="AD131" t="n">
-        <v>1200.005363152461</v>
+        <v>724.695976294866</v>
       </c>
       <c r="AE131" t="n">
         <v>0</v>
       </c>
       <c r="AF131" t="n">
-        <v>200.4478232304949</v>
+        <v>675.7572100880897</v>
       </c>
       <c r="AG131" t="n">
         <v>331.9791373369266</v>
@@ -10227,10 +10227,10 @@
         <v>8</v>
       </c>
       <c r="Q146" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R146" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
@@ -11307,10 +11307,10 @@
         <v>1</v>
       </c>
       <c r="Q161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
@@ -12935,10 +12935,10 @@
         <v>74</v>
       </c>
       <c r="Q185" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R185" t="n">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -14015,10 +14015,10 @@
         <v>2</v>
       </c>
       <c r="Q200" t="n">
+        <v>5</v>
+      </c>
+      <c r="R200" t="n">
         <v>3</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1</v>
       </c>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
@@ -15643,10 +15643,10 @@
         <v>1</v>
       </c>
       <c r="Q224" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R224" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S224" t="inlineStr"/>
       <c r="T224" t="inlineStr"/>
@@ -16723,10 +16723,10 @@
         <v>0</v>
       </c>
       <c r="Q239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S239" t="inlineStr"/>
       <c r="T239" t="inlineStr"/>
